--- a/Assets/Shared/ExcelImporter/Excels/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/CharacterDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE366A6E-FAE7-4E63-8231-BBBE7C4C6F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C8707-88CF-4683-8AA8-18143840EDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="135" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="3060" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDatas" sheetId="1" r:id="rId1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6A44A-5798-4893-82F4-85C239DAC380}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,7 +810,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>20</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>22</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>25</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>23</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>26</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>31</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>32</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>36</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>35</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>34</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>37</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>39</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>40</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>42</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>41</v>

--- a/Assets/Shared/ExcelImporter/Excels/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/CharacterDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C8707-88CF-4683-8AA8-18143840EDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E333B49-4EF4-48B0-BD89-4A604BB865AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="8925" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDatas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -160,18 +160,6 @@
   </si>
   <si>
     <t>호크아이</t>
-  </si>
-  <si>
-    <t>Images/Character/엘프검사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/인간전사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/인간궁수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/악마전사</t>
@@ -302,6 +290,114 @@
   </si>
   <si>
     <t>드래곤</t>
+  </si>
+  <si>
+    <t>Images/Character/엘프 검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/인간 궁수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/인간 마법사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_ BlackWizard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/character_sneak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_FairyDragon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_Dobi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_WoodElf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_Warlock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -417,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +549,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6A44A-5798-4893-82F4-85C239DAC380}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -792,20 +891,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -819,16 +918,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -845,13 +944,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -868,13 +967,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -885,19 +984,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -908,19 +1007,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -931,16 +1030,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -951,16 +1050,16 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -977,10 +1076,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -994,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1017,10 +1116,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1037,10 +1136,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1054,13 +1153,13 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1077,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1097,10 +1196,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1117,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1137,10 +1236,10 @@
         <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1157,10 +1256,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1177,10 +1276,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1197,10 +1296,10 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1217,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1237,10 +1336,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1257,10 +1356,10 @@
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1274,13 +1373,13 @@
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1297,10 +1396,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1317,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1337,10 +1436,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1357,10 +1456,10 @@
         <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1377,10 +1476,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1394,13 +1493,13 @@
         <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Shared/ExcelImporter/Excels/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/CharacterDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E333B49-4EF4-48B0-BD89-4A604BB865AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150BFE55-DE45-47BB-8800-661E5FEA4403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="975" yWindow="105" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDatas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -160,14 +160,6 @@
   </si>
   <si>
     <t>호크아이</t>
-  </si>
-  <si>
-    <t>Images/Character/악마전사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Old Character/Character_HolyKnight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ImagePath</t>
@@ -328,10 +320,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Old Character/Character_19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Old Character/Character_20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -348,18 +336,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Old Character/Character_24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Old Character/Character_16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Old Character/Character_25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Old Character/Character_26</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -372,22 +352,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Old Character/Character_29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Old Character/Character_30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Old Character/character_sneak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Old Character/Character_FairyDragon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Old Character/Character_Dobi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -397,6 +361,26 @@
   </si>
   <si>
     <t>Images/Old Character/Character_Warlock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/악마 전사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_DevilKnight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/인간 전사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/인간 성기사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/인간 도적</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -869,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6A44A-5798-4893-82F4-85C239DAC380}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,20 +875,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -918,16 +902,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -944,13 +928,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -967,13 +951,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -984,19 +968,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1007,19 +991,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1030,16 +1014,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1050,16 +1034,16 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1076,10 +1060,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1093,13 +1077,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1116,10 +1100,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1136,10 +1120,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1153,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1176,10 +1160,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1196,10 +1180,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1216,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1236,10 +1220,10 @@
         <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1256,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1276,10 +1260,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1296,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1316,10 +1300,10 @@
         <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1336,10 +1320,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1356,10 +1340,10 @@
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1373,13 +1357,13 @@
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1396,10 +1380,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1416,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>80</v>
@@ -1436,10 +1420,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1456,7 +1440,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>82</v>
@@ -1476,10 +1460,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1493,13 +1477,13 @@
         <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
